--- a/1st_round_screening/ACE/iteration_3/data/labeled_norm_3.xlsx
+++ b/1st_round_screening/ACE/iteration_3/data/labeled_norm_3.xlsx
@@ -565,13 +565,13 @@
         <v>48</v>
       </c>
       <c r="B2" t="n">
-        <v>0.93</v>
+        <v>0.576</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.424</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -598,16 +598,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -644,10 +644,10 @@
         <v>49</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.576</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.424</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0.08333333333333333</v>
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>0.02459807777895464</v>
+        <v>0.2507912295900184</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0005631688849052872</v>
+        <v>0.003503133073161864</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1276925575330437</v>
+        <v>0.2554991874050814</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03083842146216682</v>
+        <v>0.1326443976392031</v>
       </c>
       <c r="W3" t="n">
         <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0.576</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -723,10 +723,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.576</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.424</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -776,22 +776,22 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0.2719832524547476</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.007969452277834155</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0.2423252494971979</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.04449385825681125</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.576</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -802,10 +802,10 @@
         <v>51</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.579</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.421</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -835,16 +835,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -855,22 +855,22 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>0.02505599646885509</v>
+        <v>0.2465443359851403</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0009646704540408199</v>
+        <v>0.01140584075456517</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1205098589744067</v>
+        <v>0.3306690398422925</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03125497153704167</v>
+        <v>0.06068972297834211</v>
       </c>
       <c r="W5" t="n">
         <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>0.579</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
         <v>52</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.579</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.421</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -914,13 +914,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0.08333333333333333</v>
@@ -934,22 +934,22 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>0.02477689917090313</v>
+        <v>0.2550574380378541</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0001669266724526073</v>
+        <v>0.003053128710011254</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1498188832706732</v>
+        <v>0.1794154453078554</v>
       </c>
       <c r="V6" t="n">
-        <v>0.05111513730630458</v>
+        <v>0.004520903406910181</v>
       </c>
       <c r="W6" t="n">
         <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0.579</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>53</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.579</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.421</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -993,13 +993,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0.08333333333333333</v>
@@ -1013,22 +1013,22 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>0.0240876623474903</v>
+        <v>0.2555998580132523</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0001538333035333526</v>
+        <v>0.009307955425283563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09960364821415671</v>
+        <v>0.234082212867277</v>
       </c>
       <c r="V7" t="n">
-        <v>0.06427687150407162</v>
+        <v>0.03505040866343156</v>
       </c>
       <c r="W7" t="n">
         <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0.579</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1039,10 +1039,10 @@
         <v>54</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.579</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.421</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.185</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1072,16 +1072,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>0.1980474783437021</v>
+        <v>0.2460273808915563</v>
       </c>
       <c r="T8" t="n">
-        <v>0.003789760376440289</v>
+        <v>0.004847659758116697</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3803017288734941</v>
+        <v>0.1941334014394693</v>
       </c>
       <c r="V8" t="n">
-        <v>0.04584028674435721</v>
+        <v>0.02182905310593544</v>
       </c>
       <c r="W8" t="n">
         <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>0.8149999999999998</v>
+        <v>0.579</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1118,10 +1118,10 @@
         <v>55</v>
       </c>
       <c r="B9" t="n">
-        <v>0.459</v>
+        <v>0.579</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.421</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.541</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1151,16 +1151,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1171,22 +1171,22 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>0.02493223317377027</v>
+        <v>0.2508152815769175</v>
       </c>
       <c r="T9" t="n">
-        <v>0.00124574319533799</v>
+        <v>0.01039703914483193</v>
       </c>
       <c r="U9" t="n">
-        <v>0.3515335695686803</v>
+        <v>0.2323816715380942</v>
       </c>
       <c r="V9" t="n">
-        <v>0.09153780301086258</v>
+        <v>0.1028897543873905</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>0.4590000000000001</v>
+        <v>0.579</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>56</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.579</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.421</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1230,13 +1230,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0.08333333333333333</v>
@@ -1250,22 +1250,22 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0.2688584597371978</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.004501795684332499</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0.1833502233326554</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.02169194701454336</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.579</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1276,10 +1276,10 @@
         <v>57</v>
       </c>
       <c r="B11" t="n">
-        <v>0.645</v>
+        <v>0.579</v>
       </c>
       <c r="C11" t="n">
-        <v>0.355</v>
+        <v>0.421</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1329,22 +1329,22 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0.2626391982793762</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.00760816915779962</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0.1677878264207143</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>0.04566058220782748</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.579</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>58</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.579</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.421</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0.08333333333333333</v>
@@ -1408,22 +1408,22 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>0.02444974890275572</v>
+        <v>0.2552462563404744</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0003837082799911566</v>
+        <v>0.008067141401952121</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1360422119145757</v>
+        <v>0.1736614481263249</v>
       </c>
       <c r="V12" t="n">
-        <v>0.07289264959709571</v>
+        <v>0.003398379552150751</v>
       </c>
       <c r="W12" t="n">
         <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>1</v>
+        <v>0.579</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1434,10 +1434,10 @@
         <v>59</v>
       </c>
       <c r="B13" t="n">
-        <v>0.077</v>
+        <v>0.579</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.421</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1461,22 +1461,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.923</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1487,22 +1487,22 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0.2458329329407954</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.02271453002799925</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0.1665965973748742</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.01730667190344673</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>0.579</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1513,10 +1513,10 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0.08333333333333333</v>
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>0.02405245968180684</v>
+        <v>0.2253294990878953</v>
       </c>
       <c r="T14" t="n">
-        <v>4.29976271687816e-05</v>
+        <v>0.006344183499506908</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08689401220377516</v>
+        <v>0.1894116460139001</v>
       </c>
       <c r="V14" t="n">
-        <v>0.06839048761230757</v>
+        <v>0.03803506748326579</v>
       </c>
       <c r="W14" t="n">
         <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1592,10 +1592,10 @@
         <v>61</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0.579</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.421</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1625,13 +1625,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0.08333333333333333</v>
@@ -1645,22 +1645,22 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>0.02362928055518952</v>
+        <v>0.257788013557337</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0003251238199699861</v>
+        <v>0.009049539375981859</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1017790513860657</v>
+        <v>0.1509309990114283</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01190366774224238</v>
+        <v>0.02584651065711061</v>
       </c>
       <c r="W15" t="n">
         <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>1</v>
+        <v>0.579</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1671,10 +1671,10 @@
         <v>62</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.579</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.421</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1704,13 +1704,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0.08333333333333333</v>
@@ -1724,22 +1724,22 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>0.02427487447108495</v>
+        <v>0.2567838258731002</v>
       </c>
       <c r="T16" t="n">
-        <v>0.000569953090984279</v>
+        <v>0.00882685838186612</v>
       </c>
       <c r="U16" t="n">
-        <v>0.141656481192396</v>
+        <v>0.1464260678337775</v>
       </c>
       <c r="V16" t="n">
-        <v>0.04872418108961611</v>
+        <v>0.03104686612743393</v>
       </c>
       <c r="W16" t="n">
         <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>1</v>
+        <v>0.579</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1750,10 +1750,10 @@
         <v>63</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0.634</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.366</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1783,16 +1783,16 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1803,22 +1803,22 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>0.02348749682087826</v>
+        <v>0.2267326986442823</v>
       </c>
       <c r="T17" t="n">
-        <v>1.989203277000848e-05</v>
+        <v>0.01215383368830659</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0834612317460021</v>
+        <v>0.3878870981996799</v>
       </c>
       <c r="V17" t="n">
-        <v>0.01028482963145504</v>
+        <v>0.01284465735159024</v>
       </c>
       <c r="W17" t="n">
         <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>1</v>
+        <v>0.634</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
